--- a/Output Data/010_chisq_test_df.xlsx
+++ b/Output Data/010_chisq_test_df.xlsx
@@ -376,10 +376,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>7.546669617848989</v>
+        <v>26.3821489845972</v>
       </c>
       <c r="B2">
-        <v>0.006012108870760152</v>
+        <v>1.867192686407624e-006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
